--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -4,35 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="17" activeTab="18"/>
+    <workbookView activeTab="18" firstSheet="17" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor11WeeklyShPP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor12WeeklyShPP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrolFor13WeeklyShPP" sheetId="9" r:id="rId8"/>
-    <sheet name="ProcessPayrolFor14WeeklyShPP" sheetId="12" r:id="rId9"/>
-    <sheet name="ProcessPayrolFor15WeeklyShPP" sheetId="15" r:id="rId10"/>
-    <sheet name="ProcessPayrolFor16WeeklyShPP" sheetId="16" r:id="rId11"/>
-    <sheet name="ProcessPayrolFor17WeeklyShPP" sheetId="17" r:id="rId12"/>
-    <sheet name="ProcessPayrolFor18WeeklyShPP" sheetId="18" r:id="rId13"/>
-    <sheet name="ProcessPayrolFor19WeeklyShPP" sheetId="19" r:id="rId14"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId15"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId16"/>
-    <sheet name="ProcessPayrolFor46WeeklyShPP" sheetId="21" r:id="rId17"/>
-    <sheet name="ProcessPayrolFor47WeeklyShPP" sheetId="22" r:id="rId18"/>
-    <sheet name="ProcessPayrolFor48WeeklyShPP" sheetId="23" r:id="rId19"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrolFor11WeeklyShPP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrolFor12WeeklyShPP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrolFor13WeeklyShPP" r:id="rId8" sheetId="9"/>
+    <sheet name="ProcessPayrolFor14WeeklyShPP" r:id="rId9" sheetId="12"/>
+    <sheet name="ProcessPayrolFor15WeeklyShPP" r:id="rId10" sheetId="15"/>
+    <sheet name="ProcessPayrolFor16WeeklyShPP" r:id="rId11" sheetId="16"/>
+    <sheet name="ProcessPayrolFor17WeeklyShPP" r:id="rId12" sheetId="17"/>
+    <sheet name="ProcessPayrolFor18WeeklyShPP" r:id="rId13" sheetId="18"/>
+    <sheet name="ProcessPayrolFor19WeeklyShPP" r:id="rId14" sheetId="19"/>
+    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId16" sheetId="11"/>
+    <sheet name="ProcessPayrolFor46WeeklyShPP" r:id="rId17" sheetId="21"/>
+    <sheet name="ProcessPayrolFor47WeeklyShPP" r:id="rId18" sheetId="22"/>
+    <sheet name="ProcessPayrolFor48WeeklyShPP" r:id="rId19" sheetId="23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>
@@ -736,62 +736,62 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -805,10 +805,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -966,7 +966,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -975,13 +975,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -991,7 +991,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1000,7 +1000,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1009,7 +1009,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1019,12 +1019,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1055,7 +1055,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1074,7 +1074,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1086,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -1098,7 +1098,7 @@
     <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>165</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -1547,12 +1547,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1614,7 +1614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1653,12 +1653,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1721,7 +1721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1760,12 +1760,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1828,7 +1828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1867,12 +1867,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1935,7 +1935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1974,12 +1974,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2042,7 +2042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2081,12 +2081,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2177,12 +2177,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2246,7 +2246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2283,12 +2283,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -2351,7 +2351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2390,12 +2390,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -2458,7 +2458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2497,12 +2497,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2565,7 +2565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2604,12 +2604,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -2658,12 +2658,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3064,15 +3064,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId9"/>
-    <hyperlink ref="D2" r:id="rId10"/>
+    <hyperlink r:id="rId9" ref="C2"/>
+    <hyperlink r:id="rId10" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3112,7 +3112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3133,12 +3133,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3168,7 +3168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3180,13 +3180,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3252,7 +3252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3291,12 +3291,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3360,7 +3360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3399,12 +3399,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -3468,7 +3468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3507,12 +3507,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -3576,7 +3576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3615,6 +3615,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="17" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
-    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
-    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
-    <sheet name="ProcessPayrolFor11WeeklyShPP" r:id="rId6" sheetId="7"/>
-    <sheet name="ProcessPayrolFor12WeeklyShPP" r:id="rId7" sheetId="8"/>
-    <sheet name="ProcessPayrolFor13WeeklyShPP" r:id="rId8" sheetId="9"/>
-    <sheet name="ProcessPayrolFor14WeeklyShPP" r:id="rId9" sheetId="12"/>
-    <sheet name="ProcessPayrolFor15WeeklyShPP" r:id="rId10" sheetId="15"/>
-    <sheet name="ProcessPayrolFor16WeeklyShPP" r:id="rId11" sheetId="16"/>
-    <sheet name="ProcessPayrolFor17WeeklyShPP" r:id="rId12" sheetId="17"/>
-    <sheet name="ProcessPayrolFor18WeeklyShPP" r:id="rId13" sheetId="18"/>
-    <sheet name="ProcessPayrolFor19WeeklyShPP" r:id="rId14" sheetId="19"/>
-    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId16" sheetId="11"/>
-    <sheet name="ProcessPayrolFor46WeeklyShPP" r:id="rId17" sheetId="21"/>
-    <sheet name="ProcessPayrolFor47WeeklyShPP" r:id="rId18" sheetId="22"/>
-    <sheet name="ProcessPayrolFor48WeeklyShPP" r:id="rId19" sheetId="23"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
+    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
+    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
+    <sheet name="ProcessPayrolFor11WeeklyShPP" sheetId="7" r:id="rId6"/>
+    <sheet name="ProcessPayrolFor12WeeklyShPP" sheetId="8" r:id="rId7"/>
+    <sheet name="ProcessPayrolFor13WeeklyShPP" sheetId="9" r:id="rId8"/>
+    <sheet name="ProcessPayrolFor14WeeklyShPP" sheetId="12" r:id="rId9"/>
+    <sheet name="ProcessPayrolFor15WeeklyShPP" sheetId="15" r:id="rId10"/>
+    <sheet name="ProcessPayrolFor16WeeklyShPP" sheetId="16" r:id="rId11"/>
+    <sheet name="ProcessPayrolFor17WeeklyShPP" sheetId="17" r:id="rId12"/>
+    <sheet name="ProcessPayrolFor18WeeklyShPP" sheetId="18" r:id="rId13"/>
+    <sheet name="ProcessPayrolFor19WeeklyShPP" sheetId="19" r:id="rId14"/>
+    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId15"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId16"/>
+    <sheet name="ProcessPayrolFor46WeeklyShPP" sheetId="21" r:id="rId17"/>
+    <sheet name="ProcessPayrolFor47WeeklyShPP" sheetId="22" r:id="rId18"/>
+    <sheet name="ProcessPayrolFor48WeeklyShPP" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>
@@ -643,9 +648,6 @@
     <t>Payroll Suite Statutory Shared ParentalPay201718.xlsx</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>TestReportWorksheetNo</t>
   </si>
   <si>
@@ -665,14 +667,16 @@
   </si>
   <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,65 +740,68 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -805,10 +812,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -843,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,9 +883,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,6 +935,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,7 +1007,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -975,13 +1016,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -991,7 +1032,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1000,7 +1041,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1009,7 +1050,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1019,12 +1060,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1055,7 +1096,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1074,7 +1115,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1086,22 +1127,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="28.8" r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1129,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1143,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1154,7 +1195,7 @@
         <v>112</v>
       </c>
     </row>
-    <row ht="28.8" r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1168,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1182,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1196,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1210,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1224,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -1238,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1252,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -1266,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>165</v>
       </c>
@@ -1280,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1294,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -1308,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1322,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -1336,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -1350,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -1364,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -1378,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -1392,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -1406,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -1420,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -1434,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -1448,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1462,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -1476,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1490,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -1504,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -1518,7 +1559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -1532,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -1547,30 +1588,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1602,7 +1643,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1614,7 +1655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1622,7 +1663,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1637,7 +1678,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>190</v>
@@ -1653,31 +1694,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" activeCellId="1" sqref="H2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1709,7 +1750,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1721,7 +1762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1729,7 +1770,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1744,7 +1785,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>191</v>
@@ -1760,31 +1801,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1816,7 +1857,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1828,7 +1869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1836,7 +1877,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1851,7 +1892,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>192</v>
@@ -1867,31 +1908,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1923,7 +1964,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1935,7 +1976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -1943,7 +1984,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1958,7 +1999,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>193</v>
@@ -1974,31 +2015,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2030,7 +2071,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2042,7 +2083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2050,7 +2091,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2065,10 +2106,10 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
@@ -2081,32 +2122,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2144,27 +2185,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>209</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>157</v>
@@ -2177,32 +2218,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2234,7 +2275,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2246,7 +2287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2254,7 +2295,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2267,7 +2308,7 @@
         <v>158</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>194</v>
@@ -2283,31 +2324,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2339,7 +2380,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2351,7 +2392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2359,7 +2400,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2374,7 +2415,7 @@
         <v>155</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>195</v>
@@ -2390,31 +2431,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2446,7 +2487,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2458,7 +2499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2466,7 +2507,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2481,7 +2522,7 @@
         <v>155</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>196</v>
@@ -2497,31 +2538,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2553,7 +2594,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2565,7 +2606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -2573,7 +2614,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2588,7 +2629,7 @@
         <v>155</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>197</v>
@@ -2604,26 +2645,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2643,7 +2684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -2658,35 +2699,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2877,7 +2918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
@@ -3064,29 +3105,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId9" ref="C2"/>
-    <hyperlink r:id="rId10" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3112,7 +3153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3133,25 +3174,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3168,7 +3209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3180,35 +3221,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3240,7 +3281,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3252,7 +3293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3260,7 +3301,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3275,7 +3316,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>186</v>
@@ -3291,32 +3332,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3348,7 +3389,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3360,7 +3401,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3368,7 +3409,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3383,7 +3424,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>187</v>
@@ -3399,32 +3440,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3456,7 +3497,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3468,7 +3509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3476,7 +3517,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3491,7 +3532,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>188</v>
@@ -3507,32 +3548,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3564,7 +3605,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3576,7 +3617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -3584,7 +3625,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3599,7 +3640,7 @@
         <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>189</v>
@@ -3615,6 +3656,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
     <t>2017</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" activeCellId="1" sqref="H2 H2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -3230,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
     <sheet name="ProcessPayrolFor47WeeklyShPP" sheetId="22" r:id="rId18"/>
     <sheet name="ProcessPayrolFor48WeeklyShPP" sheetId="23" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -642,9 +637,6 @@
     <t>06/15/2017</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
     <t>Payroll Suite Statutory Shared ParentalPay201718.xlsx</t>
   </si>
   <si>
@@ -654,9 +646,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>Weekly_Payroll</t>
-  </si>
-  <si>
     <t>11/30/2017</t>
   </si>
   <si>
@@ -669,13 +658,19 @@
     <t>2017</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+    <t>DONT TOUCH AUTO DIRSHPP EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRSHPP_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -788,6 +783,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -850,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,26 +879,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,23 +914,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,15 +1096,15 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1184,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1237,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1265,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -1293,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -1321,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1349,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1377,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -1405,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -1433,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -1461,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -1475,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -1517,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1545,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -1559,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -1573,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -1596,22 +1558,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1643,7 +1605,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1655,15 +1617,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1672,7 +1634,7 @@
         <v>147</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -1694,6 +1656,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1702,23 +1667,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1750,7 +1715,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1762,15 +1727,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1779,7 +1744,7 @@
         <v>148</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -1801,6 +1766,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1809,23 +1777,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1857,7 +1825,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1869,15 +1837,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1886,7 +1854,7 @@
         <v>149</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -1908,6 +1876,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1916,23 +1887,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1964,7 +1935,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1976,15 +1947,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -1993,7 +1964,7 @@
         <v>150</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -2015,6 +1986,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2023,23 +1997,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2071,7 +2045,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2083,15 +2057,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2100,7 +2074,7 @@
         <v>151</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -2109,7 +2083,7 @@
         <v>210</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
@@ -2122,6 +2096,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2134,17 +2111,17 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,22 +2167,22 @@
         <v>141</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>157</v>
@@ -2226,24 +2203,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2275,7 +2252,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2287,22 +2264,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>158</v>
@@ -2324,6 +2301,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2332,23 +2312,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2380,7 +2360,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2392,15 +2372,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2409,7 +2389,7 @@
         <v>152</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>155</v>
@@ -2431,6 +2411,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2439,23 +2422,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2487,7 +2470,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2499,15 +2482,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2516,7 +2499,7 @@
         <v>153</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>155</v>
@@ -2538,6 +2521,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2546,23 +2532,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2594,7 +2580,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2606,15 +2592,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -2623,7 +2609,7 @@
         <v>154</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>155</v>
@@ -2645,6 +2631,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2657,14 +2646,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2711,19 +2700,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3120,14 +3109,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3186,13 +3175,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3209,7 +3198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3230,26 +3219,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3281,7 +3270,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3293,15 +3282,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3310,7 +3299,7 @@
         <v>142</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -3332,6 +3321,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3344,20 +3336,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3389,7 +3381,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3401,15 +3393,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3418,7 +3410,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -3440,6 +3432,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3448,24 +3443,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3497,7 +3492,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3509,15 +3504,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3526,7 +3521,7 @@
         <v>145</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -3548,6 +3543,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3556,24 +3554,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3617,15 +3615,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>201</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
+      <c r="C2" t="s">
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
@@ -3634,7 +3632,7 @@
         <v>146</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
@@ -3656,6 +3654,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -4,35 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="17" activeTab="18"/>
+    <workbookView activeTab="18" firstSheet="17" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor11WeeklyShPP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor12WeeklyShPP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrolFor13WeeklyShPP" sheetId="9" r:id="rId8"/>
-    <sheet name="ProcessPayrolFor14WeeklyShPP" sheetId="12" r:id="rId9"/>
-    <sheet name="ProcessPayrolFor15WeeklyShPP" sheetId="15" r:id="rId10"/>
-    <sheet name="ProcessPayrolFor16WeeklyShPP" sheetId="16" r:id="rId11"/>
-    <sheet name="ProcessPayrolFor17WeeklyShPP" sheetId="17" r:id="rId12"/>
-    <sheet name="ProcessPayrolFor18WeeklyShPP" sheetId="18" r:id="rId13"/>
-    <sheet name="ProcessPayrolFor19WeeklyShPP" sheetId="19" r:id="rId14"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId15"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId16"/>
-    <sheet name="ProcessPayrolFor46WeeklyShPP" sheetId="21" r:id="rId17"/>
-    <sheet name="ProcessPayrolFor47WeeklyShPP" sheetId="22" r:id="rId18"/>
-    <sheet name="ProcessPayrolFor48WeeklyShPP" sheetId="23" r:id="rId19"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrolFor11WeeklyShPP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrolFor12WeeklyShPP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrolFor13WeeklyShPP" r:id="rId8" sheetId="9"/>
+    <sheet name="ProcessPayrolFor14WeeklyShPP" r:id="rId9" sheetId="12"/>
+    <sheet name="ProcessPayrolFor15WeeklyShPP" r:id="rId10" sheetId="15"/>
+    <sheet name="ProcessPayrolFor16WeeklyShPP" r:id="rId11" sheetId="16"/>
+    <sheet name="ProcessPayrolFor17WeeklyShPP" r:id="rId12" sheetId="17"/>
+    <sheet name="ProcessPayrolFor18WeeklyShPP" r:id="rId13" sheetId="18"/>
+    <sheet name="ProcessPayrolFor19WeeklyShPP" r:id="rId14" sheetId="19"/>
+    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId16" sheetId="11"/>
+    <sheet name="ProcessPayrolFor46WeeklyShPP" r:id="rId17" sheetId="21"/>
+    <sheet name="ProcessPayrolFor47WeeklyShPP" r:id="rId18" sheetId="22"/>
+    <sheet name="ProcessPayrolFor48WeeklyShPP" r:id="rId19" sheetId="23"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>
@@ -671,6 +671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,63 +736,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -808,10 +809,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -969,7 +970,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -978,13 +979,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -994,7 +995,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1003,7 +1004,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1012,7 +1013,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1022,12 +1023,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1058,7 +1059,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1077,7 +1078,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1089,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -1098,13 +1099,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>165</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -1550,12 +1551,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1564,16 +1565,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -1657,14 +1658,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1673,17 +1674,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -1767,14 +1768,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1783,17 +1784,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -1877,14 +1878,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1893,17 +1894,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -1987,14 +1988,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2003,17 +2004,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -2097,14 +2098,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2113,15 +2114,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2195,12 +2196,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2209,18 +2210,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -2302,14 +2303,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2318,17 +2319,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -2412,14 +2413,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2428,17 +2429,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -2522,14 +2523,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -2538,17 +2539,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -2632,14 +2633,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2648,12 +2649,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -2688,12 +2689,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2702,18 +2703,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -3094,15 +3095,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3111,12 +3112,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3163,12 +3164,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3177,11 +3178,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3210,13 +3211,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -3225,20 +3226,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -3322,14 +3323,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3338,18 +3339,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -3433,14 +3434,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -3449,18 +3450,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -3544,14 +3545,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -3560,18 +3561,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>208</v>
       </c>
@@ -3655,8 +3656,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="17" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView activeTab="5" firstSheet="3" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="210">
   <si>
     <t>TC</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>DO NOT TOUCH AUTOMATION ShPP 101</t>
-  </si>
-  <si>
-    <t>Week-11</t>
   </si>
   <si>
     <t>DO NOT TOUCH ShPP GROSS PAYMENTS</t>
@@ -1188,10 +1185,10 @@
     </row>
     <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1202,10 +1199,10 @@
     </row>
     <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1216,10 +1213,10 @@
     </row>
     <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1230,10 +1227,10 @@
     </row>
     <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1244,10 +1241,10 @@
     </row>
     <row ht="30" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1258,10 +1255,10 @@
     </row>
     <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1272,10 +1269,10 @@
     </row>
     <row ht="30" r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1286,10 +1283,10 @@
     </row>
     <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1300,10 +1297,10 @@
     </row>
     <row ht="30" r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1314,10 +1311,10 @@
     </row>
     <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1328,10 +1325,10 @@
     </row>
     <row ht="30" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1342,10 +1339,10 @@
     </row>
     <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1356,10 +1353,10 @@
     </row>
     <row ht="30" r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1370,10 +1367,10 @@
     </row>
     <row ht="15" r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1384,10 +1381,10 @@
     </row>
     <row ht="30" r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1398,10 +1395,10 @@
     </row>
     <row ht="15" r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1412,10 +1409,10 @@
     </row>
     <row ht="30" r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1426,10 +1423,10 @@
     </row>
     <row ht="15" r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -1457,7 +1454,7 @@
         <v>131</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1468,10 +1465,10 @@
     </row>
     <row ht="30" r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -1482,10 +1479,10 @@
     </row>
     <row ht="15" r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1496,10 +1493,10 @@
     </row>
     <row ht="30" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -1510,10 +1507,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1524,10 +1521,10 @@
     </row>
     <row ht="28.8" r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1538,10 +1535,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -1606,7 +1603,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1620,37 +1617,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -1716,7 +1713,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1730,37 +1727,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -1826,7 +1823,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1840,37 +1837,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -1936,7 +1933,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1950,37 +1947,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2046,7 +2043,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2060,37 +2057,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2168,25 +2165,25 @@
         <v>141</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>111</v>
@@ -2253,7 +2250,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2267,35 +2264,35 @@
     </row>
     <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2361,7 +2358,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2375,37 +2372,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2471,7 +2468,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2485,37 +2482,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2533,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2581,7 +2578,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2595,37 +2592,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2659,10 +2656,10 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2679,7 +2676,7 @@
         <v>141</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>111</v>
@@ -3220,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3271,7 +3268,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3285,37 +3282,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>143</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -3382,7 +3379,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3396,37 +3393,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -3493,7 +3490,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3507,37 +3504,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -3604,7 +3601,7 @@
         <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3618,37 +3615,37 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory Shared ParentalPay201718.xlsx
@@ -4,35 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
-    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
-    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
-    <sheet name="ProcessPayrolFor11WeeklyShPP" r:id="rId6" sheetId="7"/>
-    <sheet name="ProcessPayrolFor12WeeklyShPP" r:id="rId7" sheetId="8"/>
-    <sheet name="ProcessPayrolFor13WeeklyShPP" r:id="rId8" sheetId="9"/>
-    <sheet name="ProcessPayrolFor14WeeklyShPP" r:id="rId9" sheetId="12"/>
-    <sheet name="ProcessPayrolFor15WeeklyShPP" r:id="rId10" sheetId="15"/>
-    <sheet name="ProcessPayrolFor16WeeklyShPP" r:id="rId11" sheetId="16"/>
-    <sheet name="ProcessPayrolFor17WeeklyShPP" r:id="rId12" sheetId="17"/>
-    <sheet name="ProcessPayrolFor18WeeklyShPP" r:id="rId13" sheetId="18"/>
-    <sheet name="ProcessPayrolFor19WeeklyShPP" r:id="rId14" sheetId="19"/>
-    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId16" sheetId="11"/>
-    <sheet name="ProcessPayrolFor46WeeklyShPP" r:id="rId17" sheetId="21"/>
-    <sheet name="ProcessPayrolFor47WeeklyShPP" r:id="rId18" sheetId="22"/>
-    <sheet name="ProcessPayrolFor48WeeklyShPP" r:id="rId19" sheetId="23"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
+    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
+    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
+    <sheet name="ProcessPayrolFor11WeeklyShPP" sheetId="7" r:id="rId6"/>
+    <sheet name="ProcessPayrolFor12WeeklyShPP" sheetId="8" r:id="rId7"/>
+    <sheet name="ProcessPayrolFor13WeeklyShPP" sheetId="9" r:id="rId8"/>
+    <sheet name="ProcessPayrolFor14WeeklyShPP" sheetId="12" r:id="rId9"/>
+    <sheet name="ProcessPayrolFor15WeeklyShPP" sheetId="15" r:id="rId10"/>
+    <sheet name="ProcessPayrolFor16WeeklyShPP" sheetId="16" r:id="rId11"/>
+    <sheet name="ProcessPayrolFor17WeeklyShPP" sheetId="17" r:id="rId12"/>
+    <sheet name="ProcessPayrolFor18WeeklyShPP" sheetId="18" r:id="rId13"/>
+    <sheet name="ProcessPayrolFor19WeeklyShPP" sheetId="19" r:id="rId14"/>
+    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId15"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId16"/>
+    <sheet name="ProcessPayrolFor46WeeklyShPP" sheetId="21" r:id="rId17"/>
+    <sheet name="ProcessPayrolFor47WeeklyShPP" sheetId="22" r:id="rId18"/>
+    <sheet name="ProcessPayrolFor48WeeklyShPP" sheetId="23" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
   <si>
     <t>TC</t>
   </si>
@@ -662,13 +662,15 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+  </si>
+  <si>
+    <t>Week-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,63 +735,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -806,10 +808,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -967,7 +969,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -976,13 +978,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -992,7 +994,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1001,7 +1003,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1010,7 +1012,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1020,12 +1022,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1056,7 +1058,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1075,7 +1077,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1087,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -1096,13 +1098,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>112</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -1548,12 +1550,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1562,16 +1564,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -1655,14 +1657,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1671,17 +1673,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -1765,14 +1767,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1781,17 +1783,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1835,7 +1837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -1875,14 +1877,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1891,17 +1893,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -1985,14 +1987,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2001,17 +2003,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -2095,14 +2097,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2111,15 +2113,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2193,12 +2195,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2207,18 +2209,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -2300,14 +2302,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2316,17 +2318,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="1" max="1" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -2410,14 +2412,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2426,17 +2428,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -2520,14 +2522,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2536,17 +2538,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -2630,14 +2632,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,12 +2648,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2671,7 +2673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -2686,12 +2688,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2700,18 +2702,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -3092,15 +3094,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3109,12 +3111,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3161,12 +3163,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3175,11 +3177,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
@@ -3208,35 +3210,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>200</v>
@@ -3320,34 +3322,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -3431,34 +3433,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -3542,14 +3544,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -3558,18 +3560,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>207</v>
       </c>
@@ -3653,8 +3655,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>